--- a/data/proc/scrap_lists/2010_2014/09205.xlsx
+++ b/data/proc/scrap_lists/2010_2014/09205.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -461,12 +461,12 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>id_matched</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>estado</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>id_matched</t>
         </is>
       </c>
     </row>
@@ -496,10 +496,14 @@
           <t>0920520120074</t>
         </is>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0920520120074</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -527,10 +531,14 @@
           <t>0920520120091</t>
         </is>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0920520120091</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -558,10 +566,14 @@
           <t>0920520120103</t>
         </is>
       </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0920520120103</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -589,10 +601,14 @@
           <t>0920520120108</t>
         </is>
       </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0920520120108</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -620,10 +636,14 @@
           <t>0920520120133</t>
         </is>
       </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0920520120133</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -651,10 +671,14 @@
           <t>0920520120164</t>
         </is>
       </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0920520120164</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -682,10 +706,14 @@
           <t>0920520120170</t>
         </is>
       </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0920520120170</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -713,10 +741,14 @@
           <t>0920520120174</t>
         </is>
       </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0920520120174</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -744,10 +776,14 @@
           <t>0920520120199</t>
         </is>
       </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0920520120199</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -775,10 +811,14 @@
           <t>0920520120306</t>
         </is>
       </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0920520120306</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -806,10 +846,14 @@
           <t>0920520120338</t>
         </is>
       </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0920520120338</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -837,10 +881,14 @@
           <t>0920520120339</t>
         </is>
       </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0920520120339</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -868,10 +916,14 @@
           <t>0920520120371</t>
         </is>
       </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0920520120371</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -899,10 +951,14 @@
           <t>0920520120374</t>
         </is>
       </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0920520120374</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -930,10 +986,14 @@
           <t>0920520120377</t>
         </is>
       </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0920520120377</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -961,10 +1021,14 @@
           <t>0920520120424</t>
         </is>
       </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0920520120424</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -992,10 +1056,14 @@
           <t>0920520120475</t>
         </is>
       </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0920520120475</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1023,10 +1091,14 @@
           <t>0920520120492</t>
         </is>
       </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0920520120492</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1054,10 +1126,14 @@
           <t>0920520120508</t>
         </is>
       </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0920520120508</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1085,10 +1161,14 @@
           <t>0920520130038</t>
         </is>
       </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0920520130038</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1116,10 +1196,14 @@
           <t>0920520130056</t>
         </is>
       </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0920520130056</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1147,10 +1231,14 @@
           <t>0920520130063</t>
         </is>
       </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0920520130063</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1178,10 +1266,14 @@
           <t>0920520130148</t>
         </is>
       </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0920520130148</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1209,10 +1301,14 @@
           <t>0920520130152</t>
         </is>
       </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0920520130152</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1240,10 +1336,14 @@
           <t>0920520130163</t>
         </is>
       </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0920520130163</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1271,10 +1371,14 @@
           <t>0920520130203</t>
         </is>
       </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0920520130203</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1302,10 +1406,14 @@
           <t>0920520130213</t>
         </is>
       </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0920520130213</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1333,10 +1441,14 @@
           <t>0920520130244</t>
         </is>
       </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0920520130244</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1364,10 +1476,14 @@
           <t>0920520130296</t>
         </is>
       </c>
-      <c r="F30" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0920520130296</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1395,10 +1511,14 @@
           <t>0920520130303</t>
         </is>
       </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0920520130303</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1426,10 +1546,14 @@
           <t>0920520130328</t>
         </is>
       </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0920520130328</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1457,10 +1581,14 @@
           <t>0920520130331</t>
         </is>
       </c>
-      <c r="F33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0920520130331</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1488,10 +1616,14 @@
           <t>0920520130349</t>
         </is>
       </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0920520130349</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1519,10 +1651,14 @@
           <t>0920520130366</t>
         </is>
       </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0920520130366</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1550,10 +1686,14 @@
           <t>0920520130391</t>
         </is>
       </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0920520130391</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1581,10 +1721,14 @@
           <t>0920520130413</t>
         </is>
       </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0920520130413</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1612,10 +1756,14 @@
           <t>0920520130429</t>
         </is>
       </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0920520130429</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1643,10 +1791,14 @@
           <t>0920520130435</t>
         </is>
       </c>
-      <c r="F39" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0920520130435</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1674,10 +1826,14 @@
           <t>0920520130436</t>
         </is>
       </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0920520130436</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1705,10 +1861,14 @@
           <t>0920520130451</t>
         </is>
       </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0920520130451</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1736,10 +1896,14 @@
           <t>0920520130502</t>
         </is>
       </c>
-      <c r="F42" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0920520130502</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1767,10 +1931,14 @@
           <t>0920520130511</t>
         </is>
       </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0920520130511</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1798,10 +1966,14 @@
           <t>0920520130526</t>
         </is>
       </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0920520130526</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1829,10 +2001,14 @@
           <t>0920520130630</t>
         </is>
       </c>
-      <c r="F45" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0920520130630</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1860,10 +2036,14 @@
           <t>0920520130645</t>
         </is>
       </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0920520130645</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1891,10 +2071,14 @@
           <t>0920520130651</t>
         </is>
       </c>
-      <c r="F47" t="n">
-        <v>0</v>
-      </c>
-      <c r="G47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0920520130651</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1922,10 +2106,14 @@
           <t>0920520130659</t>
         </is>
       </c>
-      <c r="F48" t="n">
-        <v>0</v>
-      </c>
-      <c r="G48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0920520130659</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1953,10 +2141,14 @@
           <t>0920520130660</t>
         </is>
       </c>
-      <c r="F49" t="n">
-        <v>0</v>
-      </c>
-      <c r="G49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0920520130660</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1984,10 +2176,14 @@
           <t>0920520130688</t>
         </is>
       </c>
-      <c r="F50" t="n">
-        <v>0</v>
-      </c>
-      <c r="G50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0920520130688</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2015,10 +2211,14 @@
           <t>0920520130701</t>
         </is>
       </c>
-      <c r="F51" t="n">
-        <v>0</v>
-      </c>
-      <c r="G51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0920520130701</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2046,10 +2246,14 @@
           <t>0920520130745</t>
         </is>
       </c>
-      <c r="F52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0920520130745</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2077,10 +2281,14 @@
           <t>0920520130749</t>
         </is>
       </c>
-      <c r="F53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0920520130749</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2108,10 +2316,14 @@
           <t>0920520130755</t>
         </is>
       </c>
-      <c r="F54" t="n">
-        <v>0</v>
-      </c>
-      <c r="G54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0920520130755</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2139,10 +2351,14 @@
           <t>0920520130768</t>
         </is>
       </c>
-      <c r="F55" t="n">
-        <v>0</v>
-      </c>
-      <c r="G55" t="inlineStr"/>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0920520130768</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2170,10 +2386,14 @@
           <t>0920520130792</t>
         </is>
       </c>
-      <c r="F56" t="n">
-        <v>0</v>
-      </c>
-      <c r="G56" t="inlineStr"/>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0920520130792</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2201,10 +2421,14 @@
           <t>0920520130854</t>
         </is>
       </c>
-      <c r="F57" t="n">
-        <v>0</v>
-      </c>
-      <c r="G57" t="inlineStr"/>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0920520130854</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2232,10 +2456,14 @@
           <t>0920520130857</t>
         </is>
       </c>
-      <c r="F58" t="n">
-        <v>0</v>
-      </c>
-      <c r="G58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0920520130857</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2263,10 +2491,14 @@
           <t>0920520130864</t>
         </is>
       </c>
-      <c r="F59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G59" t="inlineStr"/>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0920520130864</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2294,10 +2526,14 @@
           <t>0920520130866</t>
         </is>
       </c>
-      <c r="F60" t="n">
-        <v>0</v>
-      </c>
-      <c r="G60" t="inlineStr"/>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0920520130866</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2325,10 +2561,14 @@
           <t>0920520130872</t>
         </is>
       </c>
-      <c r="F61" t="n">
-        <v>0</v>
-      </c>
-      <c r="G61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0920520130872</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2356,10 +2596,14 @@
           <t>0920520130896</t>
         </is>
       </c>
-      <c r="F62" t="n">
-        <v>0</v>
-      </c>
-      <c r="G62" t="inlineStr"/>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0920520130896</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2387,10 +2631,14 @@
           <t>0920520130905</t>
         </is>
       </c>
-      <c r="F63" t="n">
-        <v>0</v>
-      </c>
-      <c r="G63" t="inlineStr"/>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0920520130905</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2418,10 +2666,14 @@
           <t>0920520130916</t>
         </is>
       </c>
-      <c r="F64" t="n">
-        <v>0</v>
-      </c>
-      <c r="G64" t="inlineStr"/>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0920520130916</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2449,10 +2701,14 @@
           <t>0920520130919</t>
         </is>
       </c>
-      <c r="F65" t="n">
-        <v>0</v>
-      </c>
-      <c r="G65" t="inlineStr"/>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0920520130919</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2480,10 +2736,14 @@
           <t>0920520130924</t>
         </is>
       </c>
-      <c r="F66" t="n">
-        <v>0</v>
-      </c>
-      <c r="G66" t="inlineStr"/>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0920520130924</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2511,10 +2771,14 @@
           <t>0920520130925</t>
         </is>
       </c>
-      <c r="F67" t="n">
-        <v>0</v>
-      </c>
-      <c r="G67" t="inlineStr"/>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0920520130925</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2542,10 +2806,14 @@
           <t>0920520130926</t>
         </is>
       </c>
-      <c r="F68" t="n">
-        <v>0</v>
-      </c>
-      <c r="G68" t="inlineStr"/>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0920520130926</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2573,10 +2841,14 @@
           <t>0920520130927</t>
         </is>
       </c>
-      <c r="F69" t="n">
-        <v>0</v>
-      </c>
-      <c r="G69" t="inlineStr"/>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0920520130927</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2604,10 +2876,14 @@
           <t>0920520130955</t>
         </is>
       </c>
-      <c r="F70" t="n">
-        <v>0</v>
-      </c>
-      <c r="G70" t="inlineStr"/>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0920520130955</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2635,10 +2911,14 @@
           <t>0920520130971</t>
         </is>
       </c>
-      <c r="F71" t="n">
-        <v>0</v>
-      </c>
-      <c r="G71" t="inlineStr"/>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0920520130971</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2666,10 +2946,14 @@
           <t>0920520130980</t>
         </is>
       </c>
-      <c r="F72" t="n">
-        <v>0</v>
-      </c>
-      <c r="G72" t="inlineStr"/>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0920520130980</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2697,10 +2981,14 @@
           <t>0920520131015</t>
         </is>
       </c>
-      <c r="F73" t="n">
-        <v>0</v>
-      </c>
-      <c r="G73" t="inlineStr"/>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0920520131015</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2728,10 +3016,14 @@
           <t>0920520131080</t>
         </is>
       </c>
-      <c r="F74" t="n">
-        <v>0</v>
-      </c>
-      <c r="G74" t="inlineStr"/>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0920520131080</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2759,10 +3051,14 @@
           <t>0920520140049</t>
         </is>
       </c>
-      <c r="F75" t="n">
-        <v>0</v>
-      </c>
-      <c r="G75" t="inlineStr"/>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0920520140049</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2790,10 +3086,14 @@
           <t>0920520140051</t>
         </is>
       </c>
-      <c r="F76" t="n">
-        <v>0</v>
-      </c>
-      <c r="G76" t="inlineStr"/>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0920520140051</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2821,10 +3121,14 @@
           <t>0920520140068</t>
         </is>
       </c>
-      <c r="F77" t="n">
-        <v>0</v>
-      </c>
-      <c r="G77" t="inlineStr"/>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0920520140068</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2852,10 +3156,14 @@
           <t>0920520140088</t>
         </is>
       </c>
-      <c r="F78" t="n">
-        <v>0</v>
-      </c>
-      <c r="G78" t="inlineStr"/>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>0920520140088</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2883,10 +3191,14 @@
           <t>0920520140135</t>
         </is>
       </c>
-      <c r="F79" t="n">
-        <v>0</v>
-      </c>
-      <c r="G79" t="inlineStr"/>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0920520140135</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2914,10 +3226,14 @@
           <t>0920520140137</t>
         </is>
       </c>
-      <c r="F80" t="n">
-        <v>0</v>
-      </c>
-      <c r="G80" t="inlineStr"/>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0920520140137</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -2945,10 +3261,14 @@
           <t>0920520140207</t>
         </is>
       </c>
-      <c r="F81" t="n">
-        <v>0</v>
-      </c>
-      <c r="G81" t="inlineStr"/>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>0920520140207</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -2976,10 +3296,14 @@
           <t>0920520140260</t>
         </is>
       </c>
-      <c r="F82" t="n">
-        <v>0</v>
-      </c>
-      <c r="G82" t="inlineStr"/>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>0920520140260</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3007,10 +3331,14 @@
           <t>0920520140269</t>
         </is>
       </c>
-      <c r="F83" t="n">
-        <v>0</v>
-      </c>
-      <c r="G83" t="inlineStr"/>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0920520140269</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3038,10 +3366,14 @@
           <t>0920520140341</t>
         </is>
       </c>
-      <c r="F84" t="n">
-        <v>0</v>
-      </c>
-      <c r="G84" t="inlineStr"/>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0920520140341</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3069,10 +3401,14 @@
           <t>0920520140346</t>
         </is>
       </c>
-      <c r="F85" t="n">
-        <v>0</v>
-      </c>
-      <c r="G85" t="inlineStr"/>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>0920520140346</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -3100,10 +3436,14 @@
           <t>0920520140348</t>
         </is>
       </c>
-      <c r="F86" t="n">
-        <v>0</v>
-      </c>
-      <c r="G86" t="inlineStr"/>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>0920520140348</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -3131,10 +3471,14 @@
           <t>0920520140352</t>
         </is>
       </c>
-      <c r="F87" t="n">
-        <v>0</v>
-      </c>
-      <c r="G87" t="inlineStr"/>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>0920520140352</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -3162,10 +3506,14 @@
           <t>0920520140365</t>
         </is>
       </c>
-      <c r="F88" t="n">
-        <v>0</v>
-      </c>
-      <c r="G88" t="inlineStr"/>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>0920520140365</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -3193,10 +3541,14 @@
           <t>0920520140390</t>
         </is>
       </c>
-      <c r="F89" t="n">
-        <v>0</v>
-      </c>
-      <c r="G89" t="inlineStr"/>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>0920520140390</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -3224,10 +3576,14 @@
           <t>0920520140406</t>
         </is>
       </c>
-      <c r="F90" t="n">
-        <v>0</v>
-      </c>
-      <c r="G90" t="inlineStr"/>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>0920520140406</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -3255,10 +3611,14 @@
           <t>0920520140417</t>
         </is>
       </c>
-      <c r="F91" t="n">
-        <v>0</v>
-      </c>
-      <c r="G91" t="inlineStr"/>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>0920520140417</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -3286,10 +3646,14 @@
           <t>0920520140420</t>
         </is>
       </c>
-      <c r="F92" t="n">
-        <v>0</v>
-      </c>
-      <c r="G92" t="inlineStr"/>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>0920520140420</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -3317,10 +3681,14 @@
           <t>0920520140440</t>
         </is>
       </c>
-      <c r="F93" t="n">
-        <v>0</v>
-      </c>
-      <c r="G93" t="inlineStr"/>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>0920520140440</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -3348,10 +3716,14 @@
           <t>0920520140479</t>
         </is>
       </c>
-      <c r="F94" t="n">
-        <v>0</v>
-      </c>
-      <c r="G94" t="inlineStr"/>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>0920520140479</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -3379,10 +3751,14 @@
           <t>0920520140480</t>
         </is>
       </c>
-      <c r="F95" t="n">
-        <v>0</v>
-      </c>
-      <c r="G95" t="inlineStr"/>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>0920520140480</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -3410,10 +3786,14 @@
           <t>0920520140484</t>
         </is>
       </c>
-      <c r="F96" t="n">
-        <v>0</v>
-      </c>
-      <c r="G96" t="inlineStr"/>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>0920520140484</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -3441,10 +3821,14 @@
           <t>0920520140518</t>
         </is>
       </c>
-      <c r="F97" t="n">
-        <v>0</v>
-      </c>
-      <c r="G97" t="inlineStr"/>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>0920520140518</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -3472,10 +3856,14 @@
           <t>0920520140578</t>
         </is>
       </c>
-      <c r="F98" t="n">
-        <v>0</v>
-      </c>
-      <c r="G98" t="inlineStr"/>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>0920520140578</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -3503,10 +3891,14 @@
           <t>0920520140586</t>
         </is>
       </c>
-      <c r="F99" t="n">
-        <v>0</v>
-      </c>
-      <c r="G99" t="inlineStr"/>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>0920520140586</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -3534,10 +3926,14 @@
           <t>0920520140617</t>
         </is>
       </c>
-      <c r="F100" t="n">
-        <v>0</v>
-      </c>
-      <c r="G100" t="inlineStr"/>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>0920520140617</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -3565,10 +3961,14 @@
           <t>0920520140626</t>
         </is>
       </c>
-      <c r="F101" t="n">
-        <v>0</v>
-      </c>
-      <c r="G101" t="inlineStr"/>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>0920520140626</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -3596,10 +3996,14 @@
           <t>0920520140649</t>
         </is>
       </c>
-      <c r="F102" t="n">
-        <v>0</v>
-      </c>
-      <c r="G102" t="inlineStr"/>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>0920520140649</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -3627,10 +4031,14 @@
           <t>0920520140692</t>
         </is>
       </c>
-      <c r="F103" t="n">
-        <v>0</v>
-      </c>
-      <c r="G103" t="inlineStr"/>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>0920520140692</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -3658,10 +4066,14 @@
           <t>0920520140698</t>
         </is>
       </c>
-      <c r="F104" t="n">
-        <v>0</v>
-      </c>
-      <c r="G104" t="inlineStr"/>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>0920520140698</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -3689,10 +4101,14 @@
           <t>0920520140703</t>
         </is>
       </c>
-      <c r="F105" t="n">
-        <v>0</v>
-      </c>
-      <c r="G105" t="inlineStr"/>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>0920520140703</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -3720,10 +4136,14 @@
           <t>0920520140708</t>
         </is>
       </c>
-      <c r="F106" t="n">
-        <v>0</v>
-      </c>
-      <c r="G106" t="inlineStr"/>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>0920520140708</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -3751,10 +4171,14 @@
           <t>0920520140746</t>
         </is>
       </c>
-      <c r="F107" t="n">
-        <v>0</v>
-      </c>
-      <c r="G107" t="inlineStr"/>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>0920520140746</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -3782,10 +4206,14 @@
           <t>0920520140966</t>
         </is>
       </c>
-      <c r="F108" t="n">
-        <v>0</v>
-      </c>
-      <c r="G108" t="inlineStr"/>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>0920520140966</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -3813,10 +4241,14 @@
           <t>0920520141021</t>
         </is>
       </c>
-      <c r="F109" t="n">
-        <v>0</v>
-      </c>
-      <c r="G109" t="inlineStr"/>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>0920520141021</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -3844,10 +4276,14 @@
           <t>0920520141104</t>
         </is>
       </c>
-      <c r="F110" t="n">
-        <v>0</v>
-      </c>
-      <c r="G110" t="inlineStr"/>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>0920520141104</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -3875,10 +4311,14 @@
           <t>0920520141142</t>
         </is>
       </c>
-      <c r="F111" t="n">
-        <v>0</v>
-      </c>
-      <c r="G111" t="inlineStr"/>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>0920520141142</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -3906,10 +4346,14 @@
           <t>0920520141195</t>
         </is>
       </c>
-      <c r="F112" t="n">
-        <v>0</v>
-      </c>
-      <c r="G112" t="inlineStr"/>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>0920520141195</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -3937,10 +4381,14 @@
           <t>0920520141198</t>
         </is>
       </c>
-      <c r="F113" t="n">
-        <v>0</v>
-      </c>
-      <c r="G113" t="inlineStr"/>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>0920520141198</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
